--- a/October'21/05.10.2021/Daily Sales Info.xlsx
+++ b/October'21/05.10.2021/Daily Sales Info.xlsx
@@ -280,6 +280,88 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jilani Mobile Sale 25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jilani Mobile Sale 25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jilani Mobile Sale 5</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="55">
   <si>
@@ -452,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +619,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -14877,15 +14972,15 @@
       </c>
       <c r="I4" s="2">
         <f>'9'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'9'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'9'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'9'!L29</f>
@@ -16055,15 +16150,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -16427,15 +16522,15 @@
       </c>
       <c r="I4" s="2">
         <f>'10'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'10'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'10'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'10'!L29</f>
@@ -17605,15 +17700,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -17977,15 +18072,15 @@
       </c>
       <c r="I4" s="2">
         <f>'11'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'11'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
@@ -19155,15 +19250,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -19527,15 +19622,15 @@
       </c>
       <c r="I4" s="2">
         <f>'12'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'12'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
@@ -20705,15 +20800,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -21077,15 +21172,15 @@
       </c>
       <c r="I4" s="2">
         <f>'13'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'13'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
@@ -22255,15 +22350,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -22627,15 +22722,15 @@
       </c>
       <c r="I4" s="2">
         <f>'14'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'14'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
@@ -23805,15 +23900,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -24177,15 +24272,15 @@
       </c>
       <c r="I4" s="2">
         <f>'15'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'15'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
@@ -25355,15 +25450,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -25727,15 +25822,15 @@
       </c>
       <c r="I4" s="2">
         <f>'16'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'16'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
@@ -26905,15 +27000,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -27277,15 +27372,15 @@
       </c>
       <c r="I4" s="2">
         <f>'17'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'17'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
@@ -28455,15 +28550,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -28827,15 +28922,15 @@
       </c>
       <c r="I4" s="2">
         <f>'18'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'18'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
@@ -30005,15 +30100,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -32079,15 +32174,15 @@
       </c>
       <c r="I4" s="2">
         <f>'19'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'19'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
@@ -33257,15 +33352,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -33629,15 +33724,15 @@
       </c>
       <c r="I4" s="2">
         <f>'20'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'20'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
@@ -34807,15 +34902,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -35179,15 +35274,15 @@
       </c>
       <c r="I4" s="2">
         <f>'21'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'21'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
@@ -36357,15 +36452,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -36729,15 +36824,15 @@
       </c>
       <c r="I4" s="2">
         <f>'22'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'22'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
@@ -37907,15 +38002,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -38279,15 +38374,15 @@
       </c>
       <c r="I4" s="2">
         <f>'23'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'23'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
@@ -39457,15 +39552,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -39829,15 +39924,15 @@
       </c>
       <c r="I4" s="2">
         <f>'24'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'24'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
@@ -41007,15 +41102,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -41379,15 +41474,15 @@
       </c>
       <c r="I4" s="2">
         <f>'25'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'25'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
@@ -42557,15 +42652,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -42929,15 +43024,15 @@
       </c>
       <c r="I4" s="2">
         <f>'26'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'26'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
@@ -44107,15 +44202,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -44479,15 +44574,15 @@
       </c>
       <c r="I4" s="2">
         <f>'27'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'27'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
@@ -45657,15 +45752,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -46029,15 +46124,15 @@
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'28'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
@@ -47207,15 +47302,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -49289,15 +49384,15 @@
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
@@ -50467,15 +50562,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -50839,15 +50934,15 @@
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
@@ -52017,15 +52112,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -52934,15 +53029,15 @@
       </c>
       <c r="I12" s="21">
         <f>'1'!I12+'2'!I12+'3'!I12+'4'!I12+'5'!I12+'6'!I12+'7'!I12+'8'!I12+'9'!I12+'10'!I12+'11'!I12+'12'!I12+'13'!I12+'14'!I12+'15'!I12+'16'!I12+'17'!I12+'18'!I12+'19'!I12+'20'!I12+'21'!I12+'22'!I12+'23'!I12+'24'!I12+'25'!I12+'26'!I12+'27'!I12+'28'!I12+'29'!I12+'30'!I12+'31'!I12</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J12" s="21">
         <f>'1'!J12+'2'!J12+'3'!J12+'4'!J12+'5'!J12+'6'!J12+'7'!J12+'8'!J12+'9'!J12+'10'!J12+'11'!J12+'12'!J12+'13'!J12+'14'!J12+'15'!J12+'16'!J12+'17'!J12+'18'!J12+'19'!J12+'20'!J12+'21'!J12+'22'!J12+'23'!J12+'24'!J12+'25'!J12+'26'!J12+'27'!J12+'28'!J12+'29'!J12+'30'!J12+'31'!J12</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K12" s="21">
         <f>'1'!K12+'2'!K12+'3'!K12+'4'!K12+'5'!K12+'6'!K12+'7'!K12+'8'!K12+'9'!K12+'10'!K12+'11'!K12+'12'!K12+'13'!K12+'14'!K12+'15'!K12+'16'!K12+'17'!K12+'18'!K12+'19'!K12+'20'!K12+'21'!K12+'22'!K12+'23'!K12+'24'!K12+'25'!K12+'26'!K12+'27'!K12+'28'!K12+'29'!K12+'30'!K12+'31'!K12</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L12" s="21">
         <f>'1'!L12+'2'!L12+'3'!L12+'4'!L12+'5'!L12+'6'!L12+'7'!L12+'8'!L12+'9'!L12+'10'!L12+'11'!L12+'12'!L12+'13'!L12+'14'!L12+'15'!L12+'16'!L12+'17'!L12+'18'!L12+'19'!L12+'20'!L12+'21'!L12+'22'!L12+'23'!L12+'24'!L12+'25'!L12+'26'!L12+'27'!L12+'28'!L12+'29'!L12+'30'!L12+'31'!L12</f>
@@ -52954,7 +53049,7 @@
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>37342</v>
+        <v>47802</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
@@ -52967,7 +53062,7 @@
       </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>36643.087500000001</v>
+        <v>47103.087500000001</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
@@ -53039,11 +53134,11 @@
       <c r="P13" s="26"/>
       <c r="Q13" s="26">
         <f>'1'!Q13+'2'!Q13+'3'!Q13+'4'!Q13+'5'!Q13+'6'!Q13+'7'!Q13+'8'!Q13+'9'!Q13+'10'!Q13+'11'!Q13+'12'!Q13+'13'!Q13+'14'!Q13+'15'!Q13+'16'!Q13+'17'!Q13+'18'!Q13+'19'!Q13+'20'!Q13+'21'!Q13+'22'!Q13+'23'!Q13+'24'!Q13+'25'!Q13+'26'!Q13+'27'!Q13+'28'!Q13+'29'!Q13+'30'!Q13+'31'!Q13</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>25557.022499999999</v>
+        <v>25547.022499999999</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
@@ -53051,7 +53146,7 @@
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>192.11949999999999</v>
+        <v>182.11949999999999</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54146,15 +54241,15 @@
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -54166,7 +54261,7 @@
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>933745</v>
+        <v>944205</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
@@ -54178,11 +54273,11 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>7638</v>
+        <v>7648</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>903241.40999999992</v>
+        <v>913691.40999999992</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
@@ -54190,7 +54285,7 @@
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>261.02199999999982</v>
+        <v>251.02199999999982</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54221,15 +54316,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -56202,12 +56297,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:T2"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56728,9 +56823,15 @@
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="20">
+        <v>25</v>
+      </c>
+      <c r="J12" s="20">
+        <v>25</v>
+      </c>
+      <c r="K12" s="20">
+        <v>5</v>
+      </c>
       <c r="L12" s="20"/>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
@@ -56738,7 +56839,7 @@
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>6058</v>
+        <v>16518</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
@@ -56750,7 +56851,7 @@
       </c>
       <c r="R12" s="29">
         <f t="shared" si="3"/>
-        <v>5860.4049999999997</v>
+        <v>16320.404999999999</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
@@ -56795,10 +56896,12 @@
         <v>137.22499999999999</v>
       </c>
       <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="Q13" s="26">
+        <v>10</v>
+      </c>
       <c r="R13" s="29">
         <f t="shared" si="3"/>
-        <v>4852.7749999999996</v>
+        <v>4842.7749999999996</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
@@ -56806,7 +56909,7 @@
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>47.405000000000001</v>
+        <v>37.405000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -57575,15 +57678,15 @@
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -57595,7 +57698,7 @@
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>246028</v>
+        <v>256488</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
@@ -57607,11 +57710,11 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>1983</v>
+        <v>1993</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>238111.215</v>
+        <v>248561.215</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
@@ -57619,7 +57722,7 @@
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>66.853000000000009</v>
+        <v>56.853000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57650,15 +57753,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -57900,6 +58003,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -58022,15 +58126,15 @@
       </c>
       <c r="I4" s="2">
         <f>'5'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'5'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'5'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'5'!L29</f>
@@ -59200,15 +59304,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -59572,15 +59676,15 @@
       </c>
       <c r="I4" s="2">
         <f>'6'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'6'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'6'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'6'!L29</f>
@@ -60750,15 +60854,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -61122,15 +61226,15 @@
       </c>
       <c r="I4" s="2">
         <f>'7'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'7'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'7'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'7'!L29</f>
@@ -62300,15 +62404,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -62672,15 +62776,15 @@
       </c>
       <c r="I4" s="2">
         <f>'8'!I29</f>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J4" s="2">
         <f>'8'!J29</f>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <f>'8'!K29</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2">
         <f>'8'!L29</f>
@@ -63850,15 +63954,15 @@
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
